--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:X1"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,119 +436,997 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>КОПУК</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Название</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Адрес</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Число дней работы парка (Единица)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Общая площадь парка (Гектар)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Число досуговых объектов: всего (Единица)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Число досуговых объектов: требуют капитального ремонта  (Единица)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Число досуговых объектов: работающие круглогодично (Единица)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Количество спортивных объектов (залов, площадок): в летний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Количество спортивных объектов (залов, площадок): в зимний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Прокат спортивного инвентаря: в летний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Прокат спортивного инвентаря: в зимний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Число концертных площадок, павильонов (Единица)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Количество игровых объектов на детских площадках: в летний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Количество игровых объектов на детских площадках: в зимний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Количество посадочных мест в кафе и ресторанах: в летний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Количество посадочных мест в кафе и ресторанах: в зимний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Количество туалетов: в летний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Количество туалетов: в зимний сезон (Единица)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Наличие доступа в Интернет (Единица)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Число культурно-массовых и физкультурно-оздоровительных мероприятий: всего (Единица)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Численность работников: всего (Человек)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Численность работников: штатных (Человек)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>КОПУК</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Название</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Адрес</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Число дней работы парка (Единица)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Общая площадь парка (Гектар)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Число досуговых объектов: всего (Единица)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Число досуговых объектов: требуют капитального ремонта  (Единица)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Виноград</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Количество спортивных объектов (залов, площадок): в летний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Количество спортивных объектов (залов, площадок): в зимний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Прокат спортивного инвентаря: в летний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Прокат спортивного инвентаря: в зимний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Число концертных площадок, павильонов (Единица)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Количество игровых объектов на детских площадках: в летний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Количество игровых объектов на детских площадках: в зимний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Количество посадочных мест в кафе и ресторанах: в летний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Количество посадочных мест в кафе и ресторанах: в зимний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Количество туалетов: в летний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Количество туалетов: в зимний сезон (Единица)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Яблоко</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Число культурно-массовых и физкультурно-оздоровительных мероприятий: всего (Единица)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Численность работников: всего (Человек)</t>
-        </is>
-      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>276800</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ЦПКО им.М.Горького</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119049, г.Москва, улица Крымский Вал, дом 9, строение 1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>365</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>126</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+      <c r="K2" t="n">
+        <v>18</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>136</v>
+      </c>
+      <c r="P2" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3481</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1160</v>
+      </c>
+      <c r="S2" t="n">
+        <v>43</v>
+      </c>
+      <c r="T2" t="n">
+        <v>43</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2348</v>
+      </c>
+      <c r="W2" t="n">
+        <v>520</v>
+      </c>
+      <c r="X2" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>276834</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ПКО "Сокольники"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>107113, г.Москва, улица Сокольнический Вал, дом 1, строение 1</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>365</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>503,1</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>76</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>65</v>
+      </c>
+      <c r="J3" t="n">
+        <v>37</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>162</v>
+      </c>
+      <c r="P3" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2994</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1831</v>
+      </c>
+      <c r="S3" t="n">
+        <v>22</v>
+      </c>
+      <c r="T3" t="n">
+        <v>19</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2459</v>
+      </c>
+      <c r="W3" t="n">
+        <v>390</v>
+      </c>
+      <c r="X3" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>276995</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ГАУК г.Москвы "Парк "Зарядье"</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109012, г.Москва, улица Варварка, домовладение 6, строение 1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>365</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>634</v>
+      </c>
+      <c r="R4" t="n">
+        <v>634</v>
+      </c>
+      <c r="S4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T4" t="n">
+        <v>27</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2690</v>
+      </c>
+      <c r="W4" t="n">
+        <v>307</v>
+      </c>
+      <c r="X4" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>276124</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ЦПКО им.С.М.Кирова</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>197110, г.Санкт-Петербург, остров Елагин, дом 4</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>365</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19</v>
+      </c>
+      <c r="P5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>781</v>
+      </c>
+      <c r="R5" t="n">
+        <v>225</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>283</v>
+      </c>
+      <c r="W5" t="n">
+        <v>288</v>
+      </c>
+      <c r="X5" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>272053</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Парки, инвестиции, туризм г.Краснодар</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>350911, Краснодарский край, город Краснодар, улица Трамвайная, дом 2</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>365</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>125</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1263</v>
+      </c>
+      <c r="W6" t="n">
+        <v>227</v>
+      </c>
+      <c r="X6" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>282657</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Объединение ПКО г.Нальчик</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Кабардино-Балкарская Респ., город Нальчик, проспект Шогенцукова</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>365</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>187</v>
+      </c>
+      <c r="X7" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>280011</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Екатеринбургский ЦПКО им.Маяковского</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>620100, Свердловская обл., город Екатеринбург, улица Мичурина, дом 230</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>365</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>14</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>334</v>
+      </c>
+      <c r="R8" t="n">
+        <v>334</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>78</v>
+      </c>
+      <c r="W8" t="n">
+        <v>181</v>
+      </c>
+      <c r="X8" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>278401</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ЦПКО им.В.Белинского</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>440026, Пензенская обл., город Пенза, улица Карла Маркса, владение 1</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>365</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>40</v>
+      </c>
+      <c r="P9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2243</v>
+      </c>
+      <c r="W9" t="n">
+        <v>179</v>
+      </c>
+      <c r="X9" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>274985</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Новокузнецкий ГПКО им.Ю.Гагарина</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>654007, Кемеровская обл., город Новокузнецк, улица Спартака, дом 5</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>291</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>41</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>19</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>160</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>107</v>
+      </c>
+      <c r="W10" t="n">
+        <v>163</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>279885</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ГПКО им.Гагарина</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Сахалинская обл., город Южно-Сахалинск, улица Детская</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>365</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>52,2</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>300</v>
+      </c>
+      <c r="R11" t="n">
+        <v>80</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>494</v>
+      </c>
+      <c r="W11" t="n">
+        <v>158</v>
+      </c>
+      <c r="X11" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B12" t="n">
+        <v>273094</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдых-центр</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>400005, Волгоградская обл., город Волгоград, улица Советская, дом 27</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>273</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B13" t="n">
+        <v>278539</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Мокшанский ПКО</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>442370, Пензенская обл., район Мокшанский, рабочий поселок Мокшан, улица Садовая, дом 1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B14" t="n">
+        <v>280123</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Парк культуры и отдыха им.1 Мая п.Арти</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>623340, Свердловская обл., район Артинский, рабочий поселок Арти, улица Ленина, дом 100</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>135</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>30</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>70</v>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
